--- a/manual/cs/N:A IPs Analysis_cs.xlsx
+++ b/manual/cs/N:A IPs Analysis_cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choeun/Documents/Aalborg University/2023-Fall/Let me out(semester1 project)/N:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BE5E68-192A-8D49-A78F-F98E5F50EA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B734010-B1AB-8946-BC41-58ABDAA082D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28720" windowHeight="16520" xr2:uid="{D0933BE7-A6D3-5840-9958-232435785B00}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
-  <si>
-    <t>IPv4 Adress</t>
-  </si>
-  <si>
-    <t>CIDR Notation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
   <si>
     <t>Ownership</t>
   </si>
@@ -147,13 +141,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>80-63-186-207-cable.dk.customer.tdc.net</t>
-  </si>
-  <si>
-    <t>hostnames</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>87.56.29.231</t>
   </si>
   <si>
@@ -174,9 +161,6 @@
   </si>
   <si>
     <t>87-56-29-231-dynamic.dk.customer.tdc.net </t>
-  </si>
-  <si>
-    <t>130227088002.mbb.telenor.dk</t>
   </si>
   <si>
     <t>87.62.102.8</t>
@@ -323,35 +307,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>2.111.216.171</t>
-  </si>
-  <si>
-    <r>
-      <t>2-111-216-171-dynamic.dk.customer.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>tdc.net</t>
-    </r>
-  </si>
-  <si>
-    <t>80 http TruVision NVR/DVR/IP Camera, 554</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>telenor.dk</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>TruVision NVR/DVR/IP Camera</t>
-  </si>
-  <si>
     <t>93.161.172.230</t>
   </si>
   <si>
@@ -395,6 +354,14 @@
   </si>
   <si>
     <t>abuse: 0, virustotal: 6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPv4 Address</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -927,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AB11E9-4A0D-624C-B54C-38C9E6714153}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -953,73 +920,73 @@
   <sheetData>
     <row r="1" spans="1:14" ht="35">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="20">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1027,25 +994,27 @@
     </row>
     <row r="3" spans="1:14" ht="20">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1055,53 +1024,57 @@
     </row>
     <row r="4" spans="1:14" ht="21">
       <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="21">
       <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1109,97 +1082,103 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="21">
       <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20">
       <c r="A7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C7" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="36">
       <c r="A8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1207,258 +1186,229 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="21">
       <c r="A10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C10" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21">
       <c r="A11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C11" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="36">
       <c r="A12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="C12" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="54">
       <c r="A13" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="N13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="21">
+      <c r="A14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="20">
-      <c r="A14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="5"/>
       <c r="I14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>78</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="21">
-      <c r="A15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="19" spans="1:2" ht="21">
-      <c r="A19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="21">
-      <c r="A20" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="M14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="18" spans="1:1" ht="21">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1" ht="21">
+      <c r="A19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1466,7 +1416,6 @@
     <hyperlink ref="D3" r:id="rId1" display="https://www.shodan.io/search?query=isp%3A%22TDC+Holding+A%2FS%22" xr:uid="{8517858A-14FD-5442-90BC-173D528F68BA}"/>
     <hyperlink ref="D7" r:id="rId2" display="https://www.shodan.io/search?query=isp%3A%22TDC+Holding+A%2FS%22" xr:uid="{C8EAFF9C-B5B1-2849-997C-92F91C73256A}"/>
     <hyperlink ref="E3" r:id="rId3" display="https://www.shodan.io/search?query=city%3A%22Br%C3%B8nderslev%22" xr:uid="{FF13E597-65E2-4D47-8335-185DDED5563F}"/>
-    <hyperlink ref="J14" r:id="rId4" display="https://www.shodan.io/search?query=product%3A%22TruVision+NVR%2FDVR%2FIP+Camera%22" xr:uid="{E4E66742-EE46-434A-A58C-68AA65CA3294}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
